--- a/data/csv/merged_regionlevel_data.xlsx
+++ b/data/csv/merged_regionlevel_data.xlsx
@@ -2,20 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdong/Documents/School/Third-Year/Semester 6/CSCI 1951A/ds-final-project/analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdong/Documents/School/Third-Year/Semester 6/CSCI 1951A/ds-final-project/data/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E6CDD8-D8A1-A843-B904-B778725C3068}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7725004-4805-6947-8D0E-2D0E5D9BBCD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="480" windowWidth="24460" windowHeight="16120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1420" yWindow="480" windowWidth="24460" windowHeight="16120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="25">
   <si>
     <t>region</t>
   </si>
@@ -91,12 +93,6 @@
     <t>Region</t>
   </si>
   <si>
-    <t>Average Unit Price ($/Avocado)</t>
-  </si>
-  <si>
-    <t>Percent Change</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 2016-17</t>
   </si>
   <si>
@@ -106,16 +102,29 @@
     <t>2016-18</t>
   </si>
   <si>
-    <t>Overall % Change</t>
+    <t>Avg Unit Price ($/Avocado)</t>
+  </si>
+  <si>
+    <t>2-Yr Change</t>
+  </si>
+  <si>
+    <t>Annual Percent Change</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -131,6 +140,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -171,11 +188,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -184,19 +201,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -540,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="J1" activeCellId="2" sqref="A1:A1048576 B1:B1048576 J1:J1048576"/>
+    <sheetView zoomScale="111" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1386,11 +1404,395 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8270423C-854B-C24D-9574-D517E3F55D22}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="8.83203125"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>2016</v>
+      </c>
+      <c r="C2">
+        <v>23.510469532951454</v>
+      </c>
+      <c r="D2">
+        <v>7.5610326516864843</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2017</v>
+      </c>
+      <c r="C3">
+        <v>23.454262662652255</v>
+      </c>
+      <c r="D3">
+        <v>7.3727883493354254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>2018</v>
+      </c>
+      <c r="C4">
+        <v>23.365451989726957</v>
+      </c>
+      <c r="D4">
+        <v>8.7546822168197611</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>2016</v>
+      </c>
+      <c r="C5">
+        <v>21.275326621871898</v>
+      </c>
+      <c r="D5">
+        <v>3.6565925157392876</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>2017</v>
+      </c>
+      <c r="C6">
+        <v>21.260385788737441</v>
+      </c>
+      <c r="D6">
+        <v>3.7737630102614728</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2018</v>
+      </c>
+      <c r="C7">
+        <v>21.249925137222831</v>
+      </c>
+      <c r="D7">
+        <v>4.7046165906066539</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2016</v>
+      </c>
+      <c r="C8">
+        <v>21.164906976134919</v>
+      </c>
+      <c r="D8">
+        <v>4.1113929060978176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2017</v>
+      </c>
+      <c r="C9">
+        <v>21.139782442218209</v>
+      </c>
+      <c r="D9">
+        <v>4.2342790559158292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>2018</v>
+      </c>
+      <c r="C10">
+        <v>21.096172901419962</v>
+      </c>
+      <c r="D10">
+        <v>5.2267158272472383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>2016</v>
+      </c>
+      <c r="C11">
+        <v>21.719979804737136</v>
+      </c>
+      <c r="D11">
+        <v>3.9169511740865071</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>2017</v>
+      </c>
+      <c r="C12">
+        <v>21.728941644175663</v>
+      </c>
+      <c r="D12">
+        <v>3.950607546396772</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>2018</v>
+      </c>
+      <c r="C13">
+        <v>21.726642842542272</v>
+      </c>
+      <c r="D13">
+        <v>5.1797000775341324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>2016</v>
+      </c>
+      <c r="C14">
+        <v>21.638373058374125</v>
+      </c>
+      <c r="D14">
+        <v>4.4925941576771544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>2017</v>
+      </c>
+      <c r="C15">
+        <v>21.531260901822822</v>
+      </c>
+      <c r="D15">
+        <v>4.5053817887279646</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>2018</v>
+      </c>
+      <c r="C16">
+        <v>21.415149755045242</v>
+      </c>
+      <c r="D16">
+        <v>5.489889813053682</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>2016</v>
+      </c>
+      <c r="C17">
+        <v>22.875653048900745</v>
+      </c>
+      <c r="D17">
+        <v>7.6848013404152633</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>2017</v>
+      </c>
+      <c r="C18">
+        <v>22.753257918395029</v>
+      </c>
+      <c r="D18">
+        <v>7.7710073526975014</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>2018</v>
+      </c>
+      <c r="C19">
+        <v>22.629330424419301</v>
+      </c>
+      <c r="D19">
+        <v>9.5769509734748333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>2016</v>
+      </c>
+      <c r="C20">
+        <v>20.934106364811321</v>
+      </c>
+      <c r="D20">
+        <v>4.3273025846005959</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>2017</v>
+      </c>
+      <c r="C21">
+        <v>20.856229131758656</v>
+      </c>
+      <c r="D21">
+        <v>4.3006126979179289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>2018</v>
+      </c>
+      <c r="C22">
+        <v>20.766867288712106</v>
+      </c>
+      <c r="D22">
+        <v>5.8406307597219032</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>2016</v>
+      </c>
+      <c r="C23">
+        <v>22.42767337038936</v>
+      </c>
+      <c r="D23">
+        <v>8.6853851367804307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>2017</v>
+      </c>
+      <c r="C24">
+        <v>22.422051763767609</v>
+      </c>
+      <c r="D24">
+        <v>8.6545257668875326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>2018</v>
+      </c>
+      <c r="C25">
+        <v>22.409299285469579</v>
+      </c>
+      <c r="D25">
+        <v>10.387680666461819</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA431C5-5687-B84D-8819-6D7517169778}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C726277D-8C01-664C-BAE7-547A8930F04C}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="156" workbookViewId="0">
-      <selection activeCell="C25" sqref="A1:C25"/>
+    <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1678,37 +2080,37 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE56E814-A368-4641-8D9C-C7FFC233D580}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="209" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8.5" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8" customWidth="1"/>
     <col min="5" max="7" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5"/>
-      <c r="B1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="3"/>
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="4"/>
       <c r="G1" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
@@ -1722,219 +2124,219 @@
         <v>2018</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    </row>
+    <row r="3" spans="1:7" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="8">
         <v>1.1702945117692307</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>1.3436241050769231</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>1.1595904683846152</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="9">
         <f>(C3-B3)/B3</f>
         <v>0.14810766996220101</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="9">
         <f>(D3-C3)/C3</f>
         <v>-0.13696809695280948</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="9">
         <f>(D3-B3)/B3</f>
         <v>-9.1464526894459389E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:7" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="8">
         <v>1.2305833591538462</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>1.4169329102307691</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <v>1.1509333656923078</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="9">
         <f t="shared" ref="E4:E10" si="0">(C4-B4)/B4</f>
         <v>0.1514318795965659</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="9">
         <f t="shared" ref="F4:F10" si="1">(D4-C4)/C4</f>
         <v>-0.18772910320442712</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="9">
         <f t="shared" ref="G4:G10" si="2">(D4-B4)/B4</f>
         <v>-6.4725394561085309E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="8">
         <v>1.2118119335384618</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="8">
         <v>1.3646454863076924</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
         <v>1.1760245096923077</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="9">
         <f t="shared" si="0"/>
         <v>0.12611986112643758</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="9">
         <f t="shared" si="1"/>
         <v>-0.13821976367337327</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="9">
         <f t="shared" si="2"/>
         <v>-2.9532159946350559E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="8">
         <v>1.3086337763846154</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <v>1.493699423538462</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="8">
         <v>1.2755488586153847</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="9">
         <f t="shared" si="0"/>
         <v>0.14141897488320262</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="9">
         <f t="shared" si="1"/>
         <v>-0.14604716416526087</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="9">
         <f t="shared" si="2"/>
         <v>-2.5282029522908225E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="8">
         <v>1.1554425863076925</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <v>1.3459568276153848</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="8">
         <v>1.0982203782307691</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="9">
         <f t="shared" si="0"/>
         <v>0.16488421282488433</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="9">
         <f t="shared" si="1"/>
         <v>-0.18405972933286971</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="9">
         <f t="shared" si="2"/>
         <v>-4.952406009179687E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:7" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="8">
         <v>0.8942379303846153</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <v>1.0092701010769232</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="8">
         <v>0.84049425030769231</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="9">
         <f t="shared" si="0"/>
         <v>0.12863709621759398</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="9">
         <f t="shared" si="1"/>
         <v>-0.16722565207187023</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="9">
         <f t="shared" si="2"/>
         <v>-6.009997814989531E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:7" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="8">
         <v>1.1551925456923076</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="8">
         <v>1.3738262239999999</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="8">
         <v>1.1153454137692309</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="9">
         <f t="shared" si="0"/>
         <v>0.18926167687194087</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="9">
         <f t="shared" si="1"/>
         <v>-0.18814665618929763</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="9">
         <f t="shared" si="2"/>
         <v>-3.4493930965591751E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:7" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="8">
         <v>1.0820020250769229</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="8">
         <v>1.2074388445384616</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="8">
         <v>1.0758644352307694</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="9">
         <f t="shared" si="0"/>
         <v>0.11593030008665745</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="9">
         <f t="shared" si="1"/>
         <v>-0.10896983305020803</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="9">
         <f t="shared" si="2"/>
         <v>-5.672438409454173E-3</v>
       </c>
